--- a/01-Excel/2/Activities/04-Stu_GradeBook/Unsolved/GradeBook_Unsolved.xlsx
+++ b/01-Excel/2/Activities/04-Stu_GradeBook/Unsolved/GradeBook_Unsolved.xlsx
@@ -1,30 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\1\Activities\08-Stu_GradeBook\Unsolved\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sharon\datacode\gt-virt-atl-data-pt-06-2021-u-c-2\01-Excel\2\Activities\04-Stu_GradeBook\Unsolved\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B19B4C-17D2-4A00-908F-C0347A056005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12780"/>
+    <workbookView xWindow="4920" yWindow="1485" windowWidth="15750" windowHeight="10005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Student Name</t>
   </si>
@@ -120,12 +152,15 @@
   </si>
   <si>
     <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>Rounded</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,7 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -181,6 +216,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
@@ -495,21 +544,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="10" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="5" customWidth="1"/>
+    <col min="8" max="11" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,17 +576,20 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -551,9 +605,24 @@
       <c r="E2" s="2">
         <v>56</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="7">
+        <f>AVERAGE(B2:E2)</f>
+        <v>78.75</v>
+      </c>
+      <c r="G2" s="4">
+        <f>ROUND(F2,0)</f>
+        <v>79</v>
+      </c>
+      <c r="H2" t="str">
+        <f>IF(G2&gt;=60,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="I2" t="str" cm="1">
+        <f t="array" ref="I2">_xlfn.IFS(G2&gt;90,"A",G2&gt;80,"B",G2&gt;70,"C",G2&gt;60,"D",1,"F")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -569,9 +638,24 @@
       <c r="E3" s="2">
         <v>95</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F25" si="0">AVERAGE(B3:E3)</f>
+        <v>74.25</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G25" si="1">ROUND(F3,0)</f>
+        <v>74</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H25" si="2">IF(G3&gt;=60,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="I3" t="str" cm="1">
+        <f t="array" ref="I3">_xlfn.IFS(G3&gt;90,"A",G3&gt;80,"B",G3&gt;70,"C",G3&gt;60,"D",1,"F")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -587,9 +671,24 @@
       <c r="E4" s="2">
         <v>87</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" s="7">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="I4" t="str" cm="1">
+        <f t="array" ref="I4">_xlfn.IFS(G4&gt;90,"A",G4&gt;80,"B",G4&gt;70,"C",G4&gt;60,"D",1,"F")</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -605,9 +704,24 @@
       <c r="E5" s="2">
         <v>63</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="7">
+        <f t="shared" si="0"/>
+        <v>57.75</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="2"/>
+        <v>FAIL</v>
+      </c>
+      <c r="I5" t="str" cm="1">
+        <f t="array" ref="I5">_xlfn.IFS(G5&gt;90,"A",G5&gt;80,"B",G5&gt;70,"C",G5&gt;60,"D",1,"F")</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -623,9 +737,24 @@
       <c r="E6" s="2">
         <v>85</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>80.25</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="I6" t="str" cm="1">
+        <f t="array" ref="I6">_xlfn.IFS(G6&gt;90,"A",G6&gt;80,"B",G6&gt;70,"C",G6&gt;60,"D",1,"F")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -641,9 +770,24 @@
       <c r="E7" s="2">
         <v>55</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="I7" t="str" cm="1">
+        <f t="array" ref="I7">_xlfn.IFS(G7&gt;90,"A",G7&gt;80,"B",G7&gt;70,"C",G7&gt;60,"D",1,"F")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -659,9 +803,24 @@
       <c r="E8" s="2">
         <v>83</v>
       </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="I8" t="str" cm="1">
+        <f t="array" ref="I8">_xlfn.IFS(G8&gt;90,"A",G8&gt;80,"B",G8&gt;70,"C",G8&gt;60,"D",1,"F")</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -677,9 +836,24 @@
       <c r="E9" s="2">
         <v>43</v>
       </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>FAIL</v>
+      </c>
+      <c r="I9" t="str" cm="1">
+        <f t="array" ref="I9">_xlfn.IFS(G9&gt;90,"A",G9&gt;80,"B",G9&gt;70,"C",G9&gt;60,"D",1,"F")</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -695,9 +869,24 @@
       <c r="E10" s="2">
         <v>95</v>
       </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="7">
+        <f t="shared" si="0"/>
+        <v>94.75</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="I10" t="str" cm="1">
+        <f t="array" ref="I10">_xlfn.IFS(G10&gt;90,"A",G10&gt;80,"B",G10&gt;70,"C",G10&gt;60,"D",1,"F")</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -713,9 +902,24 @@
       <c r="E11" s="2">
         <v>47</v>
       </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
+        <v>60.25</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="I11" t="str" cm="1">
+        <f t="array" ref="I11">_xlfn.IFS(G11&gt;90,"A",G11&gt;80,"B",G11&gt;70,"C",G11&gt;60,"D",1,"F")</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -731,9 +935,24 @@
       <c r="E12" s="2">
         <v>55</v>
       </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="7">
+        <f t="shared" si="0"/>
+        <v>57.25</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>FAIL</v>
+      </c>
+      <c r="I12" t="str" cm="1">
+        <f t="array" ref="I12">_xlfn.IFS(G12&gt;90,"A",G12&gt;80,"B",G12&gt;70,"C",G12&gt;60,"D",1,"F")</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -749,9 +968,24 @@
       <c r="E13" s="2">
         <v>46</v>
       </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>59.5</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="I13" t="str" cm="1">
+        <f t="array" ref="I13">_xlfn.IFS(G13&gt;90,"A",G13&gt;80,"B",G13&gt;70,"C",G13&gt;60,"D",1,"F")</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -767,9 +1001,24 @@
       <c r="E14" s="2">
         <v>52</v>
       </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
+        <v>49.25</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>FAIL</v>
+      </c>
+      <c r="I14" t="str" cm="1">
+        <f t="array" ref="I14">_xlfn.IFS(G14&gt;90,"A",G14&gt;80,"B",G14&gt;70,"C",G14&gt;60,"D",1,"F")</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -785,9 +1034,24 @@
       <c r="E15" s="2">
         <v>57</v>
       </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="I15" t="str" cm="1">
+        <f t="array" ref="I15">_xlfn.IFS(G15&gt;90,"A",G15&gt;80,"B",G15&gt;70,"C",G15&gt;60,"D",1,"F")</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -803,9 +1067,24 @@
       <c r="E16" s="2">
         <v>73</v>
       </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="7">
+        <f t="shared" si="0"/>
+        <v>75.75</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="I16" t="str" cm="1">
+        <f t="array" ref="I16">_xlfn.IFS(G16&gt;90,"A",G16&gt;80,"B",G16&gt;70,"C",G16&gt;60,"D",1,"F")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -821,9 +1100,24 @@
       <c r="E17" s="2">
         <v>53</v>
       </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="7">
+        <f t="shared" si="0"/>
+        <v>71.75</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="I17" t="str" cm="1">
+        <f t="array" ref="I17">_xlfn.IFS(G17&gt;90,"A",G17&gt;80,"B",G17&gt;70,"C",G17&gt;60,"D",1,"F")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -839,9 +1133,24 @@
       <c r="E18" s="2">
         <v>97</v>
       </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="7">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="I18" t="str" cm="1">
+        <f t="array" ref="I18">_xlfn.IFS(G18&gt;90,"A",G18&gt;80,"B",G18&gt;70,"C",G18&gt;60,"D",1,"F")</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -857,9 +1166,24 @@
       <c r="E19" s="2">
         <v>89</v>
       </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="7">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="I19" t="str" cm="1">
+        <f t="array" ref="I19">_xlfn.IFS(G19&gt;90,"A",G19&gt;80,"B",G19&gt;70,"C",G19&gt;60,"D",1,"F")</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -875,9 +1199,24 @@
       <c r="E20" s="2">
         <v>82</v>
       </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="7">
+        <f t="shared" si="0"/>
+        <v>85.25</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="I20" t="str" cm="1">
+        <f t="array" ref="I20">_xlfn.IFS(G20&gt;90,"A",G20&gt;80,"B",G20&gt;70,"C",G20&gt;60,"D",1,"F")</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -893,9 +1232,24 @@
       <c r="E21" s="2">
         <v>87</v>
       </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="7">
+        <f t="shared" si="0"/>
+        <v>74.75</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="I21" t="str" cm="1">
+        <f t="array" ref="I21">_xlfn.IFS(G21&gt;90,"A",G21&gt;80,"B",G21&gt;70,"C",G21&gt;60,"D",1,"F")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -911,9 +1265,24 @@
       <c r="E22" s="2">
         <v>100</v>
       </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="7">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="I22" t="str" cm="1">
+        <f t="array" ref="I22">_xlfn.IFS(G22&gt;90,"A",G22&gt;80,"B",G22&gt;70,"C",G22&gt;60,"D",1,"F")</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -929,9 +1298,24 @@
       <c r="E23" s="2">
         <v>48</v>
       </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="7">
+        <f t="shared" si="0"/>
+        <v>57.75</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>FAIL</v>
+      </c>
+      <c r="I23" t="str" cm="1">
+        <f t="array" ref="I23">_xlfn.IFS(G23&gt;90,"A",G23&gt;80,"B",G23&gt;70,"C",G23&gt;60,"D",1,"F")</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -947,9 +1331,24 @@
       <c r="E24" s="2">
         <v>55</v>
       </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="7">
+        <f t="shared" si="0"/>
+        <v>58.75</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>FAIL</v>
+      </c>
+      <c r="I24" t="str" cm="1">
+        <f t="array" ref="I24">_xlfn.IFS(G24&gt;90,"A",G24&gt;80,"B",G24&gt;70,"C",G24&gt;60,"D",1,"F")</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -965,7 +1364,22 @@
       <c r="E25" s="2">
         <v>53</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="7">
+        <f t="shared" si="0"/>
+        <v>69.25</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+      <c r="I25" t="str" cm="1">
+        <f t="array" ref="I25">_xlfn.IFS(G25&gt;90,"A",G25&gt;80,"B",G25&gt;70,"C",G25&gt;60,"D",1,"F")</f>
+        <v>D</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
